--- a/temp_reporte_informatica.xlsx
+++ b/temp_reporte_informatica.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja(1)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja(32)" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="ADSCRIPCION">#REF!</definedName>
@@ -73,9 +73,9 @@
     <definedName name="TIPO_A">#REF!</definedName>
     <definedName name="TIPO_B">#REF!</definedName>
     <definedName name="VIERNES">#REF!</definedName>
-    <definedName name="ASIGNACION" localSheetId="0">'Hoja(1)'!$K:$K</definedName>
-    <definedName name="FORMATO" localSheetId="0">'Hoja(1)'!$A:$K</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hoja(1)'!$A$1:$J$59</definedName>
+    <definedName name="ASIGNACION" localSheetId="0">'Hoja(32)'!$K:$K</definedName>
+    <definedName name="FORMATO" localSheetId="0">'Hoja(32)'!$A:$K</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hoja(32)'!$A$1:$J$59</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -87,7 +87,7 @@
     <numFmt numFmtId="164" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <name val="Arial"/>
       <sz val="10"/>
@@ -181,11 +181,6 @@
       <sz val="7"/>
     </font>
     <font>
-      <name val="Gill Sans MT"/>
-      <family val="2"/>
-      <sz val="7"/>
-    </font>
-    <font>
       <name val="Helvetica"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
@@ -455,6 +450,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -471,17 +477,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -625,88 +620,26 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -716,13 +649,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,53 +692,93 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -800,7 +795,875 @@
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="128">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1261,22 +2124,22 @@
   </sheetPr>
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A44" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:J55"/>
+    <sheetView showZeros="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A39" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col width="11.140625" customWidth="1" style="69" min="1" max="1"/>
-    <col width="19.42578125" customWidth="1" style="69" min="2" max="2"/>
-    <col width="7.85546875" customWidth="1" style="69" min="3" max="3"/>
-    <col width="5.85546875" customWidth="1" style="69" min="4" max="4"/>
-    <col width="13.140625" customWidth="1" style="69" min="5" max="5"/>
-    <col width="13.7109375" customWidth="1" style="69" min="6" max="6"/>
-    <col width="12.5703125" customWidth="1" style="69" min="7" max="7"/>
-    <col width="12.42578125" customWidth="1" style="69" min="8" max="8"/>
-    <col width="12" customWidth="1" style="69" min="9" max="9"/>
-    <col width="9.7109375" customWidth="1" style="69" min="10" max="10"/>
+    <col width="11.140625" customWidth="1" style="59" min="1" max="1"/>
+    <col width="19.42578125" customWidth="1" style="59" min="2" max="2"/>
+    <col width="7.85546875" customWidth="1" style="59" min="3" max="3"/>
+    <col width="5.85546875" customWidth="1" style="59" min="4" max="4"/>
+    <col width="13.140625" customWidth="1" style="59" min="5" max="5"/>
+    <col width="13.7109375" customWidth="1" style="59" min="6" max="6"/>
+    <col width="12.5703125" customWidth="1" style="59" min="7" max="7"/>
+    <col width="12.42578125" customWidth="1" style="59" min="8" max="8"/>
+    <col width="12" customWidth="1" style="59" min="9" max="9"/>
+    <col width="9.7109375" customWidth="1" style="59" min="10" max="10"/>
     <col width="12.140625" customWidth="1" style="2" min="11" max="11"/>
     <col width="11.42578125" customWidth="1" style="3" min="12" max="15"/>
     <col width="25.42578125" customWidth="1" style="3" min="16" max="16"/>
@@ -1286,161 +2149,161 @@
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" s="109">
-      <c r="A1" s="53" t="n"/>
+      <c r="A1" s="57" t="n"/>
     </row>
     <row r="2" ht="12" customHeight="1" s="109"/>
     <row r="3" ht="32.25" customHeight="1" s="109"/>
     <row r="4" ht="12" customHeight="1" s="109">
-      <c r="A4" s="97" t="inlineStr">
-        <is>
-          <t>“2025. Año del Bicentenario de la Erección del Estado Libre y Soberano de México”</t>
+      <c r="A4" s="58" t="inlineStr">
+        <is>
+          <t>“2024. Año del Bicentenario de la Erección del Estado Libre y Soberano de México”</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="98" t="inlineStr">
+      <c r="A5" s="60" t="inlineStr">
         <is>
           <t>Asignación Académica</t>
         </is>
       </c>
-      <c r="B5" s="83" t="n"/>
-      <c r="C5" s="83" t="n"/>
-      <c r="D5" s="83" t="n"/>
-      <c r="E5" s="83" t="n"/>
-      <c r="F5" s="83" t="n"/>
-      <c r="G5" s="83" t="n"/>
-      <c r="H5" s="83" t="n"/>
-      <c r="I5" s="83" t="n"/>
-      <c r="J5" s="84" t="n"/>
+      <c r="B5" s="61" t="n"/>
+      <c r="C5" s="61" t="n"/>
+      <c r="D5" s="61" t="n"/>
+      <c r="E5" s="61" t="n"/>
+      <c r="F5" s="61" t="n"/>
+      <c r="G5" s="61" t="n"/>
+      <c r="H5" s="61" t="n"/>
+      <c r="I5" s="61" t="n"/>
+      <c r="J5" s="62" t="n"/>
     </row>
     <row r="6" ht="12" customHeight="1" s="109">
-      <c r="A6" s="85" t="inlineStr">
+      <c r="A6" s="63" t="inlineStr">
         <is>
           <t>NOMBRE:</t>
         </is>
       </c>
-      <c r="B6" s="86" t="n"/>
-      <c r="C6" s="86" t="n"/>
-      <c r="D6" s="87" t="n"/>
-      <c r="E6" s="85" t="inlineStr">
+      <c r="B6" s="64" t="n"/>
+      <c r="C6" s="64" t="n"/>
+      <c r="D6" s="65" t="n"/>
+      <c r="E6" s="63" t="inlineStr">
         <is>
           <t>PROFESION:</t>
         </is>
       </c>
-      <c r="F6" s="86" t="n"/>
-      <c r="G6" s="86" t="n"/>
-      <c r="H6" s="86" t="n"/>
-      <c r="I6" s="86" t="n"/>
-      <c r="J6" s="87" t="n"/>
+      <c r="F6" s="64" t="n"/>
+      <c r="G6" s="64" t="n"/>
+      <c r="H6" s="64" t="n"/>
+      <c r="I6" s="64" t="n"/>
+      <c r="J6" s="65" t="n"/>
     </row>
     <row r="7" ht="12" customHeight="1" s="109">
-      <c r="A7" s="99" t="inlineStr">
+      <c r="A7" s="53" t="inlineStr">
         <is>
           <t>IVAN CASTELAN ESTRADA</t>
         </is>
       </c>
-      <c r="B7" s="90" t="n"/>
-      <c r="C7" s="90" t="n"/>
-      <c r="D7" s="104" t="n"/>
-      <c r="E7" s="100" t="inlineStr">
+      <c r="B7" s="69" t="n"/>
+      <c r="C7" s="69" t="n"/>
+      <c r="D7" s="70" t="n"/>
+      <c r="E7" s="56" t="inlineStr">
         <is>
           <t>ING. INDUSTRIAL</t>
         </is>
       </c>
-      <c r="F7" s="90" t="n"/>
-      <c r="G7" s="90" t="n"/>
-      <c r="H7" s="90" t="n"/>
-      <c r="I7" s="90" t="n"/>
-      <c r="J7" s="104" t="n"/>
+      <c r="F7" s="69" t="n"/>
+      <c r="G7" s="69" t="n"/>
+      <c r="H7" s="69" t="n"/>
+      <c r="I7" s="69" t="n"/>
+      <c r="J7" s="70" t="n"/>
     </row>
     <row r="8" ht="12" customHeight="1" s="109">
-      <c r="A8" s="85" t="inlineStr">
+      <c r="A8" s="63" t="inlineStr">
         <is>
           <t>ADSCRIPCIÓN:</t>
         </is>
       </c>
-      <c r="B8" s="86" t="n"/>
-      <c r="C8" s="86" t="n"/>
-      <c r="D8" s="87" t="n"/>
-      <c r="E8" s="85" t="inlineStr">
+      <c r="B8" s="64" t="n"/>
+      <c r="C8" s="64" t="n"/>
+      <c r="D8" s="65" t="n"/>
+      <c r="E8" s="63" t="inlineStr">
         <is>
           <t>INGRESO AL TECNOLÓGICO</t>
         </is>
       </c>
-      <c r="F8" s="86" t="n"/>
-      <c r="G8" s="87" t="n"/>
-      <c r="H8" s="85" t="inlineStr">
+      <c r="F8" s="64" t="n"/>
+      <c r="G8" s="65" t="n"/>
+      <c r="H8" s="63" t="inlineStr">
         <is>
           <t>TIEMPO INDETERMINADO</t>
         </is>
       </c>
-      <c r="I8" s="86" t="n"/>
-      <c r="J8" s="87" t="n"/>
+      <c r="I8" s="64" t="n"/>
+      <c r="J8" s="65" t="n"/>
     </row>
     <row r="9" ht="12" customHeight="1" s="109">
-      <c r="A9" s="100" t="inlineStr">
+      <c r="A9" s="56" t="inlineStr">
         <is>
           <t>PROFESOR DE ASIGNATURA DE ING. INDUSTRIAL</t>
         </is>
       </c>
-      <c r="B9" s="90" t="n"/>
-      <c r="C9" s="90" t="n"/>
-      <c r="D9" s="104" t="n"/>
-      <c r="E9" s="103" t="inlineStr">
+      <c r="B9" s="69" t="n"/>
+      <c r="C9" s="69" t="n"/>
+      <c r="D9" s="70" t="n"/>
+      <c r="E9" s="68" t="inlineStr">
         <is>
           <t>01 DE MARZO DE 2011</t>
         </is>
       </c>
-      <c r="F9" s="90" t="n"/>
-      <c r="G9" s="104" t="n"/>
-      <c r="H9" s="103" t="inlineStr">
+      <c r="F9" s="69" t="n"/>
+      <c r="G9" s="70" t="n"/>
+      <c r="H9" s="68" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
       </c>
-      <c r="I9" s="90" t="n"/>
-      <c r="J9" s="104" t="n"/>
+      <c r="I9" s="69" t="n"/>
+      <c r="J9" s="70" t="n"/>
     </row>
     <row r="10" ht="12" customHeight="1" s="109">
-      <c r="A10" s="85" t="inlineStr">
+      <c r="A10" s="63" t="inlineStr">
         <is>
           <t>PERIODO:</t>
         </is>
       </c>
-      <c r="B10" s="86" t="n"/>
-      <c r="C10" s="86" t="n"/>
-      <c r="D10" s="87" t="n"/>
-      <c r="E10" s="88" t="inlineStr">
+      <c r="B10" s="64" t="n"/>
+      <c r="C10" s="64" t="n"/>
+      <c r="D10" s="65" t="n"/>
+      <c r="E10" s="75" t="inlineStr">
         <is>
           <t>HORAS TIPO</t>
         </is>
       </c>
-      <c r="F10" s="83" t="n"/>
-      <c r="G10" s="83" t="n"/>
-      <c r="H10" s="84" t="n"/>
-      <c r="I10" s="88" t="inlineStr">
+      <c r="F10" s="61" t="n"/>
+      <c r="G10" s="61" t="n"/>
+      <c r="H10" s="62" t="n"/>
+      <c r="I10" s="75" t="inlineStr">
         <is>
           <t>TOTAL DE HORAS</t>
         </is>
       </c>
-      <c r="J10" s="84" t="n"/>
+      <c r="J10" s="62" t="n"/>
     </row>
     <row r="11" ht="12" customHeight="1" s="109">
-      <c r="A11" s="89" t="inlineStr">
+      <c r="A11" s="76" t="inlineStr">
         <is>
           <t>MARZO-AGOSTO 2024</t>
         </is>
       </c>
-      <c r="B11" s="90" t="n"/>
-      <c r="C11" s="90" t="n"/>
-      <c r="D11" s="90" t="n"/>
-      <c r="E11" s="88" t="inlineStr">
+      <c r="B11" s="69" t="n"/>
+      <c r="C11" s="69" t="n"/>
+      <c r="D11" s="69" t="n"/>
+      <c r="E11" s="75" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
@@ -1448,7 +2311,7 @@
         </is>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7" t="inlineStr">
         <is>
@@ -1456,7 +2319,7 @@
         </is>
       </c>
       <c r="J11" s="5" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K11" s="3" t="n"/>
     </row>
@@ -1473,20 +2336,20 @@
       <c r="J12" s="8" t="n"/>
     </row>
     <row r="13" ht="12" customHeight="1" s="109">
-      <c r="A13" s="88" t="inlineStr">
+      <c r="A13" s="75" t="inlineStr">
         <is>
           <t>Asignación de Horas Frente a Grupo</t>
         </is>
       </c>
-      <c r="B13" s="83" t="n"/>
-      <c r="C13" s="83" t="n"/>
-      <c r="D13" s="83" t="n"/>
-      <c r="E13" s="83" t="n"/>
-      <c r="F13" s="83" t="n"/>
-      <c r="G13" s="83" t="n"/>
-      <c r="H13" s="83" t="n"/>
-      <c r="I13" s="83" t="n"/>
-      <c r="J13" s="84" t="n"/>
+      <c r="B13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="61" t="n"/>
+      <c r="I13" s="61" t="n"/>
+      <c r="J13" s="62" t="n"/>
     </row>
     <row r="14" ht="12" customHeight="1" s="109">
       <c r="A14" s="18" t="inlineStr">
@@ -1541,25 +2404,29 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="10" t="inlineStr">
+        <is>
+          <t>ELECTROMECÁNICA</t>
+        </is>
+      </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>MINECRAFT INFOR</t>
+          <t>MINECRAFT ELECTROMECANICA</t>
         </is>
       </c>
       <c r="C15" s="12" t="inlineStr">
         <is>
-          <t>6601</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="D15" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E15" s="110" t="inlineStr">
         <is>
-          <t>07:00 10:00</t>
+          <t>07:00 11:00</t>
         </is>
       </c>
       <c r="F15" s="14" t="inlineStr">
@@ -1567,9 +2434,9 @@
           <t> </t>
         </is>
       </c>
-      <c r="G15" s="110" t="inlineStr">
-        <is>
-          <t>07:00 09:00</t>
+      <c r="G15" s="14" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="H15" s="14" t="inlineStr">
@@ -1591,10 +2458,26 @@
       <c r="N15" s="111" t="n"/>
     </row>
     <row r="16" ht="21.75" customHeight="1" s="109">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="11" t="inlineStr"/>
-      <c r="C16" s="12" t="inlineStr"/>
-      <c r="D16" s="12" t="inlineStr"/>
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>SISTEMAS COMPUTACIONALES</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="inlineStr">
+        <is>
+          <t>MINECRAFT</t>
+        </is>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>4152</t>
+        </is>
+      </c>
+      <c r="D16" s="12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="E16" s="14" t="inlineStr">
         <is>
           <t> </t>
@@ -1602,7 +2485,7 @@
       </c>
       <c r="F16" s="14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14:00 18:00</t>
         </is>
       </c>
       <c r="G16" s="14" t="inlineStr">
@@ -1629,10 +2512,26 @@
       <c r="N16" s="111" t="n"/>
     </row>
     <row r="17" ht="21.75" customHeight="1" s="109">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="11" t="inlineStr"/>
-      <c r="C17" s="12" t="inlineStr"/>
-      <c r="D17" s="12" t="inlineStr"/>
+      <c r="A17" s="10" t="inlineStr">
+        <is>
+          <t>INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="inlineStr">
+        <is>
+          <t>PROBABILIDAD Y ESTADÍSTICA (AEC-1053)</t>
+        </is>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>1181</t>
+        </is>
+      </c>
+      <c r="D17" s="12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="E17" s="14" t="inlineStr">
         <is>
           <t> </t>
@@ -1645,7 +2544,7 @@
       </c>
       <c r="G17" s="14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>17:00 21:00</t>
         </is>
       </c>
       <c r="H17" s="14" t="inlineStr">
@@ -1665,11 +2564,27 @@
       </c>
       <c r="K17" s="17" t="n"/>
     </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
-      <c r="B18" s="11" t="inlineStr"/>
-      <c r="C18" s="12" t="inlineStr"/>
-      <c r="D18" s="12" t="inlineStr"/>
+    <row r="18" ht="17.25" customHeight="1" s="109">
+      <c r="A18" s="10" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="inlineStr">
+        <is>
+          <t>MINECRAFT INFOR</t>
+        </is>
+      </c>
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t>6101</t>
+        </is>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="E18" s="14" t="inlineStr">
         <is>
           <t> </t>
@@ -1687,7 +2602,7 @@
       </c>
       <c r="H18" s="14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>11:00 16:00</t>
         </is>
       </c>
       <c r="I18" s="14" t="inlineStr">
@@ -1705,7 +2620,11 @@
     <row r="19" ht="20.25" customHeight="1" s="109">
       <c r="A19" s="10" t="n"/>
       <c r="B19" s="11" t="inlineStr"/>
-      <c r="C19" s="12" t="inlineStr"/>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="D19" s="12" t="inlineStr"/>
       <c r="E19" s="14" t="inlineStr">
         <is>
@@ -1742,7 +2661,11 @@
     <row r="20" ht="19.5" customHeight="1" s="109">
       <c r="A20" s="10" t="n"/>
       <c r="B20" s="11" t="inlineStr"/>
-      <c r="C20" s="12" t="inlineStr"/>
+      <c r="C20" s="12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="D20" s="12" t="inlineStr"/>
       <c r="E20" s="14" t="inlineStr">
         <is>
@@ -1779,7 +2702,11 @@
     <row r="21" ht="18" customHeight="1" s="109">
       <c r="A21" s="10" t="n"/>
       <c r="B21" s="11" t="inlineStr"/>
-      <c r="C21" s="12" t="inlineStr"/>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="D21" s="12" t="inlineStr"/>
       <c r="E21" s="14" t="inlineStr">
         <is>
@@ -1816,7 +2743,11 @@
     <row r="22" ht="18" customHeight="1" s="109">
       <c r="A22" s="10" t="n"/>
       <c r="B22" s="11" t="inlineStr"/>
-      <c r="C22" s="12" t="inlineStr"/>
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="D22" s="12" t="inlineStr"/>
       <c r="E22" s="14" t="inlineStr">
         <is>
@@ -1870,7 +2801,7 @@
       <c r="K23" s="17" t="n"/>
     </row>
     <row r="24" ht="12" customHeight="1" s="109">
-      <c r="A24" s="91" t="inlineStr">
+      <c r="A24" s="77" t="inlineStr">
         <is>
           <t>Asignación de Horas de Descarga para otras Actividades</t>
         </is>
@@ -1928,20 +2859,20 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="24.75" customHeight="1" s="109">
+    <row r="26" ht="21.75" customHeight="1" s="109">
       <c r="A26" s="24" t="inlineStr">
         <is>
-          <t>INFORMÁTICA</t>
+          <t>ELECTRÓNICA</t>
         </is>
       </c>
       <c r="B26" s="25" t="inlineStr">
         <is>
-          <t>MINECRAFT2 INFOR</t>
+          <t>MINECRAFT 8</t>
         </is>
       </c>
       <c r="C26" s="26" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>3102</t>
         </is>
       </c>
       <c r="D26" s="26" t="inlineStr">
@@ -1949,9 +2880,9 @@
           <t>7</t>
         </is>
       </c>
-      <c r="E26" s="110" t="inlineStr">
-        <is>
-          <t>11:00 13:00</t>
+      <c r="E26" s="14" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="F26" s="14" t="inlineStr">
@@ -1966,12 +2897,12 @@
       </c>
       <c r="H26" s="14" t="inlineStr">
         <is>
-          <t>13:00 18:00</t>
+          <t> </t>
         </is>
       </c>
       <c r="I26" s="14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10:00 17:00</t>
         </is>
       </c>
       <c r="J26" s="14" t="inlineStr">
@@ -1981,11 +2912,23 @@
       </c>
       <c r="K26" s="27" t="n"/>
     </row>
-    <row r="27" ht="28.5" customHeight="1" s="109">
-      <c r="A27" s="24" t="inlineStr"/>
-      <c r="B27" s="25" t="inlineStr"/>
+    <row r="27" ht="24.75" customHeight="1" s="109">
+      <c r="A27" s="24" t="inlineStr">
+        <is>
+          <t>ADMINISTRACIÓN</t>
+        </is>
+      </c>
+      <c r="B27" s="25" t="inlineStr">
+        <is>
+          <t>MINECRAFT2</t>
+        </is>
+      </c>
       <c r="C27" s="26" t="inlineStr"/>
-      <c r="D27" s="26" t="inlineStr"/>
+      <c r="D27" s="26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="E27" s="14" t="inlineStr">
         <is>
           <t> </t>
@@ -2011,14 +2954,14 @@
           <t> </t>
         </is>
       </c>
-      <c r="J27" s="14" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="J27" s="110" t="inlineStr">
+        <is>
+          <t>11:00 12:00</t>
         </is>
       </c>
       <c r="K27" s="27" t="n"/>
     </row>
-    <row r="28" ht="26.25" customHeight="1" s="109">
+    <row r="28" ht="23.25" customHeight="1" s="109">
       <c r="A28" s="24" t="inlineStr"/>
       <c r="B28" s="25" t="inlineStr"/>
       <c r="C28" s="26" t="inlineStr"/>
@@ -2055,7 +2998,7 @@
       </c>
       <c r="K28" s="27" t="n"/>
     </row>
-    <row r="29" ht="30" customHeight="1" s="109">
+    <row r="29" ht="24" customHeight="1" s="109">
       <c r="A29" s="24" t="inlineStr"/>
       <c r="B29" s="25" t="inlineStr"/>
       <c r="C29" s="26" t="inlineStr"/>
@@ -2092,7 +3035,7 @@
       </c>
       <c r="K29" s="27" t="n"/>
     </row>
-    <row r="30" ht="33" customHeight="1" s="109">
+    <row r="30" ht="24" customHeight="1" s="109">
       <c r="A30" s="24" t="inlineStr"/>
       <c r="B30" s="25" t="inlineStr"/>
       <c r="C30" s="26" t="inlineStr"/>
@@ -2129,7 +3072,7 @@
       </c>
       <c r="K30" s="27" t="n"/>
     </row>
-    <row r="31" ht="19.5" customHeight="1" s="109">
+    <row r="31" ht="23.25" customHeight="1" s="109">
       <c r="A31" s="24" t="inlineStr"/>
       <c r="B31" s="25" t="inlineStr"/>
       <c r="C31" s="26" t="inlineStr"/>
@@ -2166,7 +3109,7 @@
       </c>
       <c r="K31" s="27" t="n"/>
     </row>
-    <row r="32" ht="34.5" customHeight="1" s="109">
+    <row r="32" ht="24" customHeight="1" s="109">
       <c r="A32" s="24" t="inlineStr"/>
       <c r="B32" s="25" t="inlineStr"/>
       <c r="C32" s="26" t="inlineStr"/>
@@ -2260,7 +3203,7 @@
       <c r="K34" s="27" t="n"/>
     </row>
     <row r="35" ht="12" customHeight="1" s="109">
-      <c r="A35" s="91" t="inlineStr">
+      <c r="A35" s="77" t="inlineStr">
         <is>
           <t>Asignación de Horas de Presidente y Secretario de Academia</t>
         </is>
@@ -2322,19 +3265,11 @@
       <c r="A37" s="24" t="n"/>
       <c r="B37" s="25" t="inlineStr">
         <is>
-          <t>PRESIDENTE DE ACADEMIA</t>
-        </is>
-      </c>
-      <c r="C37" s="26" t="inlineStr">
-        <is>
-          <t>NG</t>
-        </is>
-      </c>
-      <c r="D37" s="26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C37" s="26" t="inlineStr"/>
+      <c r="D37" s="26" t="inlineStr"/>
       <c r="E37" s="18" t="inlineStr">
         <is>
           <t> </t>
@@ -2362,7 +3297,7 @@
       </c>
       <c r="J37" s="26" t="inlineStr">
         <is>
-          <t>12:00 13:00</t>
+          <t> </t>
         </is>
       </c>
       <c r="K37" s="31" t="n"/>
@@ -2385,14 +3320,14 @@
     </row>
     <row r="39" ht="12" customHeight="1" s="109" thickBot="1">
       <c r="A39" s="36" t="n"/>
-      <c r="B39" s="92" t="inlineStr">
+      <c r="B39" s="78" t="inlineStr">
         <is>
           <t>TOTAL DE HORAS</t>
         </is>
       </c>
-      <c r="C39" s="93" t="n"/>
+      <c r="C39" s="79" t="n"/>
       <c r="D39" s="37" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E39" s="38" t="n"/>
       <c r="F39" s="38" t="n"/>
@@ -2406,26 +3341,26 @@
       <c r="B40" s="40" t="n"/>
       <c r="C40" s="41" t="n"/>
       <c r="D40" s="38" t="n"/>
-      <c r="E40" s="94" t="inlineStr">
+      <c r="E40" s="80" t="inlineStr">
         <is>
           <t>FECHA DE APLICACIÓN</t>
         </is>
       </c>
-      <c r="G40" s="95" t="inlineStr">
-        <is>
-          <t>16/02/2025</t>
-        </is>
-      </c>
-      <c r="H40" s="93" t="n"/>
-      <c r="I40" s="93" t="n"/>
-      <c r="J40" s="96" t="n"/>
+      <c r="G40" s="81" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+      <c r="H40" s="79" t="n"/>
+      <c r="I40" s="79" t="n"/>
+      <c r="J40" s="82" t="n"/>
     </row>
     <row r="41" ht="12" customHeight="1" s="109" thickBot="1">
       <c r="A41" s="36" t="n"/>
       <c r="B41" s="40" t="n"/>
       <c r="C41" s="41" t="n"/>
       <c r="D41" s="38" t="n"/>
-      <c r="E41" s="94" t="inlineStr">
+      <c r="E41" s="80" t="inlineStr">
         <is>
           <t>CONSECUTIVO</t>
         </is>
@@ -2451,24 +3386,24 @@
       <c r="K42" s="45" t="n"/>
     </row>
     <row r="43" ht="17.25" customFormat="1" customHeight="1" s="43">
-      <c r="A43" s="105" t="inlineStr"/>
-      <c r="B43" s="87" t="n"/>
-      <c r="C43" s="107" t="inlineStr">
+      <c r="A43" s="71" t="n"/>
+      <c r="B43" s="65" t="n"/>
+      <c r="C43" s="73" t="inlineStr">
         <is>
           <t>REVISO</t>
         </is>
       </c>
-      <c r="D43" s="86" t="n"/>
-      <c r="E43" s="86" t="n"/>
-      <c r="F43" s="87" t="n"/>
-      <c r="G43" s="82" t="inlineStr">
+      <c r="D43" s="64" t="n"/>
+      <c r="E43" s="64" t="n"/>
+      <c r="F43" s="65" t="n"/>
+      <c r="G43" s="74" t="inlineStr">
         <is>
           <t>FIRMA DE CONFORMIDAD</t>
         </is>
       </c>
-      <c r="H43" s="83" t="n"/>
-      <c r="I43" s="83" t="n"/>
-      <c r="J43" s="84" t="n"/>
+      <c r="H43" s="61" t="n"/>
+      <c r="I43" s="61" t="n"/>
+      <c r="J43" s="62" t="n"/>
       <c r="K43" s="45" t="n"/>
     </row>
     <row r="44" ht="21.75" customFormat="1" customHeight="1" s="43">
@@ -2478,36 +3413,44 @@
       <c r="D44" s="46" t="n"/>
       <c r="E44" s="46" t="n"/>
       <c r="F44" s="47" t="n"/>
-      <c r="G44" s="57" t="inlineStr">
+      <c r="G44" s="85" t="inlineStr">
         <is>
           <t>IVAN CASTELAN ESTRADA</t>
         </is>
       </c>
-      <c r="H44" s="86" t="n"/>
-      <c r="I44" s="86" t="n"/>
-      <c r="J44" s="87" t="n"/>
+      <c r="H44" s="64" t="n"/>
+      <c r="I44" s="64" t="n"/>
+      <c r="J44" s="65" t="n"/>
       <c r="K44" s="45" t="n"/>
     </row>
-    <row r="45" ht="27.75" customFormat="1" customHeight="1" s="43">
+    <row r="45" ht="18.75" customFormat="1" customHeight="1" s="43">
       <c r="A45" s="114" t="n"/>
       <c r="B45" s="113" t="n"/>
-      <c r="C45" s="115" t="inlineStr"/>
+      <c r="C45" s="115" t="inlineStr">
+        <is>
+          <t>LCDA. BLANCA ESTELA SÁNCHEZ HERNÁNDEZ</t>
+        </is>
+      </c>
       <c r="F45" s="113" t="n"/>
       <c r="G45" s="116" t="n"/>
       <c r="J45" s="113" t="n"/>
       <c r="K45" s="45" t="n"/>
     </row>
-    <row r="46" ht="12" customFormat="1" customHeight="1" s="43">
-      <c r="A46" s="66" t="inlineStr"/>
-      <c r="B46" s="104" t="n"/>
-      <c r="C46" s="117" t="inlineStr"/>
-      <c r="D46" s="90" t="n"/>
-      <c r="E46" s="90" t="n"/>
-      <c r="F46" s="104" t="n"/>
+    <row r="46" ht="18.75" customFormat="1" customHeight="1" s="43">
+      <c r="A46" s="97" t="n"/>
+      <c r="B46" s="70" t="n"/>
+      <c r="C46" s="117" t="inlineStr">
+        <is>
+          <t>ENCARGADA DEL DESPACHO DE DIRECCIÓN ACADÉMICA</t>
+        </is>
+      </c>
+      <c r="D46" s="69" t="n"/>
+      <c r="E46" s="69" t="n"/>
+      <c r="F46" s="70" t="n"/>
       <c r="G46" s="118" t="n"/>
-      <c r="H46" s="90" t="n"/>
-      <c r="I46" s="90" t="n"/>
-      <c r="J46" s="104" t="n"/>
+      <c r="H46" s="69" t="n"/>
+      <c r="I46" s="69" t="n"/>
+      <c r="J46" s="70" t="n"/>
       <c r="K46" s="45" t="n"/>
     </row>
     <row r="47" ht="1.35" customHeight="1" s="109">
@@ -2525,26 +3468,26 @@
       <c r="Q47" s="49" t="n"/>
     </row>
     <row r="48" ht="9" customHeight="1" s="109">
-      <c r="A48" s="68" t="n"/>
+      <c r="A48" s="99" t="n"/>
       <c r="C48" s="119" t="inlineStr">
         <is>
           <t>Vo. Bo</t>
         </is>
       </c>
-      <c r="G48" s="70" t="n"/>
+      <c r="G48" s="100" t="n"/>
       <c r="K48" s="3" t="n"/>
     </row>
     <row r="49" ht="12.75" customHeight="1" s="109">
       <c r="K49" s="3" t="n"/>
     </row>
-    <row r="50" ht="13.5" customHeight="1" s="109">
-      <c r="C50" s="90" t="n"/>
-      <c r="D50" s="90" t="n"/>
-      <c r="E50" s="90" t="n"/>
-      <c r="F50" s="90" t="n"/>
+    <row r="50" ht="16.5" customHeight="1" s="109">
+      <c r="C50" s="69" t="n"/>
+      <c r="D50" s="69" t="n"/>
+      <c r="E50" s="69" t="n"/>
+      <c r="F50" s="69" t="n"/>
       <c r="K50" s="3" t="n"/>
     </row>
-    <row r="51" ht="1.5" customHeight="1" s="109">
+    <row r="51" ht="0.75" customHeight="1" s="109">
       <c r="A51" s="50" t="n"/>
       <c r="B51" s="51" t="n"/>
       <c r="C51" s="51" t="n"/>
@@ -2557,28 +3500,32 @@
       <c r="J51" s="51" t="n"/>
       <c r="K51" s="3" t="n"/>
     </row>
-    <row r="52" ht="10.5" customHeight="1" s="109">
+    <row r="52" ht="9" customHeight="1" s="109">
       <c r="A52" s="51" t="n"/>
       <c r="B52" s="51" t="n"/>
-      <c r="C52" s="54" t="inlineStr"/>
+      <c r="C52" s="102" t="inlineStr">
+        <is>
+          <t>DR. ERNESTO M. RIVAS RIVAS</t>
+        </is>
+      </c>
       <c r="G52" s="51" t="n"/>
       <c r="H52" s="51" t="n"/>
       <c r="I52" s="51" t="n"/>
       <c r="J52" s="51" t="n"/>
     </row>
-    <row r="53">
-      <c r="C53" s="54" t="inlineStr"/>
+    <row r="53" ht="10.5" customHeight="1" s="109">
+      <c r="C53" s="102" t="inlineStr">
+        <is>
+          <t>DIRECTOR GENERAL</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="108" t="inlineStr">
-        <is>
-          <t>Los temarios de las asignaturas para este semestre debe ser descargados de la siguiente URL con la especialidad de Lean Manufacturing en la Industria 4.0: http://tescha.edomex.gob.mx/plan-de-estudio</t>
-        </is>
-      </c>
+      <c r="A54" s="105" t="inlineStr"/>
     </row>
     <row r="55"/>
     <row r="56">
-      <c r="A56" s="53" t="n"/>
+      <c r="A56" s="57" t="n"/>
     </row>
     <row r="57">
       <c r="K57" s="3" t="n"/>
@@ -2597,13 +3544,13 @@
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A48:B50"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="A54:J55"/>
-    <mergeCell ref="E6:J6"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="G40:J40"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="C53:F53"/>
     <mergeCell ref="G44:J46"/>
     <mergeCell ref="G43:J43"/>
     <mergeCell ref="A46:B46"/>
